--- a/UgandaScrape/file_clean.xlsx
+++ b/UgandaScrape/file_clean.xlsx
@@ -14,11 +14,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>ID_macro_ent</t>
   </si>
   <si>
+    <t>Source</t>
+  </si>
+  <si>
     <t>Country Name</t>
   </si>
   <si>
@@ -34,6 +37,9 @@
     <t>Link</t>
   </si>
   <si>
+    <t>SQL Query</t>
+  </si>
+  <si>
     <t>Botswana</t>
   </si>
   <si>
@@ -61,7 +67,7 @@
     <t>1695.10</t>
   </si>
   <si>
-    <t>20190610</t>
+    <t>2019-06-10</t>
   </si>
   <si>
     <t>https://www.african-markets.com/en/stock-markets/bse</t>
@@ -71,6 +77,15 @@
   </si>
   <si>
     <t>https://www.african-markets.com/en/stock-markets/use</t>
+  </si>
+  <si>
+    <t>EXECUTE TIER2.PROD.SP_INSERT_RATE 1474, 3, '2019-06-10', 7720.60</t>
+  </si>
+  <si>
+    <t>EXECUTE TIER2.PROD.SP_INSERT_RATE 1094, 5, '2019-06-10', 150.04</t>
+  </si>
+  <si>
+    <t>EXECUTE TIER2.PROD.SP_INSERT_RATE 1522, 3, '2019-06-10', 1695.10</t>
   </si>
 </sst>
 </file>
@@ -441,13 +456,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -466,72 +481,96 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>1474</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
+      <c r="B2">
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>1094</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
+      <c r="B3">
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" t="s">
         <v>17</v>
       </c>
+      <c r="G3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>1522</v>
       </c>
-      <c r="B4" t="s">
-        <v>8</v>
+      <c r="B4">
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
-    <hyperlink ref="F3" r:id="rId2"/>
-    <hyperlink ref="F4" r:id="rId3"/>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="G3" r:id="rId2"/>
+    <hyperlink ref="G4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
